--- a/KYC Providers notes/Book1.xlsx
+++ b/KYC Providers notes/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KYCProcessResearch\KYC Providers notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3B9F6B-A497-4A8D-9994-BA185A0770E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4F42DA-376E-46E4-9454-10BF36746C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FB42F06-D60B-4825-914E-C1AD21CF9DBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Software</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t xml:space="preserve">Email Verification, ID Verification, Liveness &amp; Face Match, CaseManagement &amp; Investigation, Basic Statistics. AML screening: PEPs, sanctions, watchlists and adverse media. Countries and document types restrictions, Address Verification, Phone Verification </t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Email + chat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Around $343 p/m for 100 verifications </t>
+  </si>
+  <si>
+    <t>Web and Mobile (Android/iOS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$25 fee per active account if the team has 3+ members. Supports </t>
+  </si>
+  <si>
+    <t>Web SDK / Mobile SDK integration, Session generation via API, Documents download via API, Webhooks configuration, RESTful APIs</t>
   </si>
 </sst>
 </file>
@@ -98,10 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -418,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE91C3BD-4BA9-4DD8-822C-0887FC10F116}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,11 +450,12 @@
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,13 +477,32 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/KYC Providers notes/Book1.xlsx
+++ b/KYC Providers notes/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KYCProcessResearch\KYC Providers notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4F42DA-376E-46E4-9454-10BF36746C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF3D034-47E9-4F51-9C93-5C5F95E3CBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FB42F06-D60B-4825-914E-C1AD21CF9DBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Software</t>
   </si>
@@ -77,19 +77,53 @@
     <t>Web and Mobile (Android/iOS)</t>
   </si>
   <si>
-    <t xml:space="preserve">$25 fee per active account if the team has 3+ members. Supports </t>
-  </si>
-  <si>
     <t>Web SDK / Mobile SDK integration, Session generation via API, Documents download via API, Webhooks configuration, RESTful APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrations seems well documented for both WEB and Mobile. </t>
+  </si>
+  <si>
+    <t>$25 fee per active account if the team has 3+ members. Is used by Binance so I believe it is highly scalable.</t>
+  </si>
+  <si>
+    <t>WithPersona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrate on any device with a no-code flow, drop-in widget, or mobile SDK </t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Highly Scalable</t>
+  </si>
+  <si>
+    <t>Offered verification types: Government ID, Selfie, Document, Database, DMV verification (AAMVA), SSN verification (eCBSV), Phone Carrier verification, Phone number verification, Configurable verification checks, ID type restrictions, Country restrictions, Multi-organization partitioning</t>
+  </si>
+  <si>
+    <t>Webhooks, Events, Custom integrations(Enterprise only)</t>
+  </si>
+  <si>
+    <t>Integration and onboarding support, Dedicated customer success manager</t>
+  </si>
+  <si>
+    <t>Free trial, price depends on montly users. Probably pricey.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -116,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -125,6 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,20 +474,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE91C3BD-4BA9-4DD8-822C-0887FC10F116}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -481,8 +518,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="105.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -492,17 +529,45 @@
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="75.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/KYC Providers notes/Book1.xlsx
+++ b/KYC Providers notes/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KYCProcessResearch\KYC Providers notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF3D034-47E9-4F51-9C93-5C5F95E3CBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370CBFFF-D4FB-4FA2-9B3A-4BD751CB2F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FB42F06-D60B-4825-914E-C1AD21CF9DBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Software</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>Free trial, price depends on montly users. Probably pricey.</t>
+  </si>
+  <si>
+    <t>FouthLine</t>
+  </si>
+  <si>
+    <t>Reduced long-term cost</t>
+  </si>
+  <si>
+    <t>ID Verification, Selfie, liveless video authentication, NFC Scans (Optional), Proof of address, fraud detection(Next GEN),  AML Screening and Onboarding, Secure digital signature, Re-KYC and Remediation</t>
+  </si>
+  <si>
+    <t>must request info.</t>
   </si>
 </sst>
 </file>
@@ -474,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE91C3BD-4BA9-4DD8-822C-0887FC10F116}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,6 +582,32 @@
         <v>22</v>
       </c>
     </row>
+    <row r="6" spans="1:8" ht="45.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/KYC Providers notes/Book1.xlsx
+++ b/KYC Providers notes/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KYCProcessResearch\KYC Providers notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370CBFFF-D4FB-4FA2-9B3A-4BD751CB2F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CDC63E-A373-47DE-A817-B1DB9CC35322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FB42F06-D60B-4825-914E-C1AD21CF9DBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Software</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>must request info.</t>
+  </si>
+  <si>
+    <t>IDNow</t>
   </si>
 </sst>
 </file>
@@ -486,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE91C3BD-4BA9-4DD8-822C-0887FC10F116}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,6 +611,11 @@
         <v>27</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/KYC Providers notes/Book1.xlsx
+++ b/KYC Providers notes/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KYCProcessResearch\KYC Providers notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CDC63E-A373-47DE-A817-B1DB9CC35322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0734F0B2-FB00-4660-97A0-D76FE06CD202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FB42F06-D60B-4825-914E-C1AD21CF9DBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Software</t>
   </si>
@@ -108,18 +108,6 @@
   </si>
   <si>
     <t>Free trial, price depends on montly users. Probably pricey.</t>
-  </si>
-  <si>
-    <t>FouthLine</t>
-  </si>
-  <si>
-    <t>Reduced long-term cost</t>
-  </si>
-  <si>
-    <t>ID Verification, Selfie, liveless video authentication, NFC Scans (Optional), Proof of address, fraud detection(Next GEN),  AML Screening and Onboarding, Secure digital signature, Re-KYC and Remediation</t>
-  </si>
-  <si>
-    <t>must request info.</t>
   </si>
   <si>
     <t>IDNow</t>
@@ -489,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE91C3BD-4BA9-4DD8-822C-0887FC10F116}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,36 +573,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KYC Providers notes/Book1.xlsx
+++ b/KYC Providers notes/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KYCProcessResearch\KYC Providers notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0734F0B2-FB00-4660-97A0-D76FE06CD202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9ABF30-005E-43FD-8A93-CAB8B7FD7EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FB42F06-D60B-4825-914E-C1AD21CF9DBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Software</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Web and Mobile (Android/iOS)</t>
   </si>
   <si>
-    <t>Web SDK / Mobile SDK integration, Session generation via API, Documents download via API, Webhooks configuration, RESTful APIs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Integrations seems well documented for both WEB and Mobile. </t>
   </si>
   <si>
@@ -95,22 +92,55 @@
     <t>Any</t>
   </si>
   <si>
-    <t>Highly Scalable</t>
-  </si>
-  <si>
     <t>Offered verification types: Government ID, Selfie, Document, Database, DMV verification (AAMVA), SSN verification (eCBSV), Phone Carrier verification, Phone number verification, Configurable verification checks, ID type restrictions, Country restrictions, Multi-organization partitioning</t>
   </si>
   <si>
-    <t>Webhooks, Events, Custom integrations(Enterprise only)</t>
-  </si>
-  <si>
     <t>Integration and onboarding support, Dedicated customer success manager</t>
   </si>
   <si>
     <t>Free trial, price depends on montly users. Probably pricey.</t>
   </si>
   <si>
+    <t>No info</t>
+  </si>
+  <si>
     <t>IDNow</t>
+  </si>
+  <si>
+    <t>Trulioo</t>
+  </si>
+  <si>
+    <t>Very easy to implement according to user reviews</t>
+  </si>
+  <si>
+    <t>Fully-automated identity, age and driver’s license verification with wide document coverage, Identity Wallet, VideoIdent, eID (NFC)</t>
+  </si>
+  <si>
+    <t>Scalable</t>
+  </si>
+  <si>
+    <t>Developer hub, FAQ and 24/7 IT support availability via ticket-like system</t>
+  </si>
+  <si>
+    <t>Identity Verification, ID Document Verification, Global Business Verification, AML watchlist screening, Proof of Address verification</t>
+  </si>
+  <si>
+    <t>Unlimited configuration and integration support</t>
+  </si>
+  <si>
+    <t>Has documentation and guide on implementations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C# API Library, Java API Library to help implement and uses GlobalGateway API </t>
+  </si>
+  <si>
+    <t>No info, therefore must work on anything.</t>
+  </si>
+  <si>
+    <t>Free trial, no info for enterprise solutions.</t>
+  </si>
+  <si>
+    <t>24x7 Support, Dedicated Account Manager</t>
   </si>
 </sst>
 </file>
@@ -477,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE91C3BD-4BA9-4DD8-822C-0887FC10F116}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +518,7 @@
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="84.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -521,7 +551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="105.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -532,13 +562,13 @@
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>11</v>
@@ -549,40 +579,81 @@
     </row>
     <row r="4" spans="1:8" ht="75.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
